--- a/00_OCORA Latest Publications/Latest Release/OCORA-BWS01-040_Feedback-Form.xlsx
+++ b/00_OCORA Latest Publications/Latest Release/OCORA-BWS01-040_Feedback-Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{443783A7-5582-4D25-9021-C917A1AC8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9BEE488-88E1-4426-B6F6-D1D67CEC7CF3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2D87666D-14C0-43F0-BFBF-993A48463BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D11F9CAE-E9A1-48D8-A8A7-1B992A04C8C3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1425" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v1.00  04.07.2023 - final" sheetId="1" r:id="rId1"/>
+    <sheet name="v1.00  04.12.2023 - final" sheetId="1" r:id="rId1"/>
     <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -16,8 +16,8 @@
     <definedName name="Decision_1">Config!$C$2:$C$7</definedName>
     <definedName name="Decision_2">Config!$D$2:$D$7</definedName>
     <definedName name="Decision_3">Config!$E$2:$E$7</definedName>
-    <definedName name="Documents">Config!$A$2:$A$76</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'v1.00  04.07.2023 - final'!$1:$2</definedName>
+    <definedName name="Documents">Config!$A$2:$A$71</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'v1.00  04.12.2023 - final'!$1:$2</definedName>
     <definedName name="Publish">#REF!</definedName>
     <definedName name="Status">#REF!</definedName>
   </definedNames>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>For Reviewers</t>
   </si>
@@ -161,21 +161,12 @@
     <t>OCORA-BWS01-040 – Feedback Form</t>
   </si>
   <si>
-    <t>OCORA-BWS02-010 – Executive Summary Slide Deck</t>
-  </si>
-  <si>
     <t>OCORA-BWS02-020 – Program Slide Deck</t>
   </si>
   <si>
     <t>OCORA-BWS02-030 – Technical Slide Deck</t>
   </si>
   <si>
-    <t>OCORA-BWS02-040 – Program Posters</t>
-  </si>
-  <si>
-    <t>OCORA-BWS02-050 – Technical Posters</t>
-  </si>
-  <si>
     <t>OCORA-BWS03-010 – Introduction to OCORA</t>
   </si>
   <si>
@@ -218,9 +209,21 @@
     <t>OCORA-BWS08-020 – Tooling</t>
   </si>
   <si>
+    <t>OCORA-TWS15-051 – PoC OMS SS-149 - Results</t>
+  </si>
+  <si>
+    <t>OCORA-TWS15-060 – PoC Configuration Management - Concept</t>
+  </si>
+  <si>
     <t>OCORA-TWS01-010 – Design Requirements</t>
   </si>
   <si>
+    <t>OCORA-TWS01-020 – Operational &amp; System Analysis</t>
+  </si>
+  <si>
+    <t>OCORA-TWS01-025 – Modularisation Roadmap Proposal</t>
+  </si>
+  <si>
     <t>OCORA-TWS01-030 – System Architecture</t>
   </si>
   <si>
@@ -251,12 +254,21 @@
     <t>OCORA-TWS01-112 – Automated Train Protection On-Board (ATP-OB) - MLM Interface Analysis</t>
   </si>
   <si>
+    <t>OCORA-TWS01-201 – Train Display System – Discussion Paper</t>
+  </si>
+  <si>
+    <t>OCORA-TWS01-210 – Train Display System – SS-121 Modelling Report</t>
+  </si>
+  <si>
     <t>OCORA-TWS02-010 – CCS Communication Network – Evaluation</t>
   </si>
   <si>
     <t>OCORA-TWS02-020 – CCS Communication Network – Proof of Concept (PoC)</t>
   </si>
   <si>
+    <t>OCORA-TWS02-030 – OCORA Addendum to SUBSET-147</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCORA-TWS03-010 – SCP – Whitepaper Computing Platform for Railway Applications </t>
   </si>
   <si>
@@ -272,7 +284,13 @@
     <t>OCORA-TWS04-011 – Functional Vehicle Adapter – Requirements</t>
   </si>
   <si>
-    <t>OCORA-TWS04-012 – TCMS – Standard Communication Interface Specification</t>
+    <t>OCORA-TWS04-012 – Standard Communication Interface Specification - SCI-TCMS</t>
+  </si>
+  <si>
+    <t>OCORA-TWS04-015 – OCORA Addendum to SUBSET-119</t>
+  </si>
+  <si>
+    <t>OCORA-TWS04-016 – OCORA Addendum to SUBSET-139</t>
   </si>
   <si>
     <t>OCORA-TWS05-010 – Requirements – Management Guideline</t>
@@ -293,6 +311,9 @@
     <t>OCORA-TWS07-030 – RAMS – SRAC/AC Management</t>
   </si>
   <si>
+    <t>OCORA-TWS07-040 – RAMS – Optimised Approval Process</t>
+  </si>
+  <si>
     <t>OCORA-TWS07-050 – RAMS – RAM Strategy</t>
   </si>
   <si>
@@ -302,55 +323,22 @@
     <t>OCORA-TWS07-100 – CENELEC Phase 1 – Concept</t>
   </si>
   <si>
+    <t>OCORA-TWS07-202 – QRAMSS – Plan</t>
+  </si>
+  <si>
+    <t>OCORA-TWS07-203 – RAMSS – Policy</t>
+  </si>
+  <si>
     <t>OCORA-TWS08-010 – MDCM-OB – Introduction</t>
   </si>
   <si>
     <t>OCORA-TWS08-030 – MDCM-OB – SRS</t>
   </si>
   <si>
-    <t>OCORA-TWS09-010 – Testing – Strategy</t>
-  </si>
-  <si>
-    <t>OCORA-TWS09-011 – Testing – Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCORA-TWS09-050 – Testing – Cybersecurity Testing Strategy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCORA-TWS09-110 – Train Adapter Block Integration Plan </t>
-  </si>
-  <si>
-    <t>OCORA-TWS09-111 – Testing - Testplan Functional Vehicle Adapter</t>
-  </si>
-  <si>
     <t>OCORA-TWS15-040 – CCS-OB Retrofit - Guideline for Projects</t>
   </si>
   <si>
     <t>OCORA-TWS15-050 – PoC OMS SS-149 - Concept</t>
-  </si>
-  <si>
-    <t>OCORA-TWS02-030 – OCORA Addendum to SUBSET-147</t>
-  </si>
-  <si>
-    <t>OCORA-TWS15-051 – PoC OMS SS-149 - Results</t>
-  </si>
-  <si>
-    <t>OCORA-TWS15-060 – PoC Configuration Management - Concept</t>
-  </si>
-  <si>
-    <t>OCORA-TWS07-040 – RAMS – Optimised Approval Process</t>
-  </si>
-  <si>
-    <t>OCORA-TWS07-202 – QRAMSS – Plan</t>
-  </si>
-  <si>
-    <t>OCORA-TWS07-203 – RAMSS – Policy</t>
-  </si>
-  <si>
-    <t>OCORA-TWS01-201 – Train Display System – Discussion Paper</t>
-  </si>
-  <si>
-    <t>OCORA-TWS01-025 – Modularisation Roadmap Proposal</t>
   </si>
 </sst>
 </file>
@@ -669,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -764,9 +752,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -821,10 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1188,41 +1170,41 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="26"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="26"/>
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -1230,13 +1212,13 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -1244,13 +1226,13 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -1258,97 +1240,97 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="26"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="26"/>
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="26"/>
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="26"/>
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="26"/>
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="26"/>
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -1356,83 +1338,83 @@
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="26"/>
       <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="26"/>
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="26"/>
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="26"/>
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="26"/>
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -1440,13 +1422,13 @@
       <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -1454,13 +1436,13 @@
       <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -1468,13 +1450,13 @@
       <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -1482,13 +1464,13 @@
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -1496,13 +1478,13 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="40"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -1510,13 +1492,13 @@
       <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -1524,13 +1506,13 @@
       <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="40"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -1538,13 +1520,13 @@
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -1552,13 +1534,13 @@
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -1566,13 +1548,13 @@
       <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="40"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -1580,13 +1562,13 @@
       <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -1594,13 +1576,13 @@
       <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="40"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -1608,13 +1590,13 @@
       <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -1622,13 +1604,13 @@
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -1636,13 +1618,13 @@
       <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="40"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -1650,13 +1632,13 @@
       <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="40"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -1664,13 +1646,13 @@
       <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="40"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -1678,13 +1660,13 @@
       <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="40"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -1692,13 +1674,13 @@
       <c r="L38" s="29"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="40"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
@@ -1706,13 +1688,13 @@
       <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="40"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
@@ -1720,13 +1702,13 @@
       <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="40"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
@@ -1734,13 +1716,13 @@
       <c r="L41" s="29"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="40"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -1748,13 +1730,13 @@
       <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="40"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
@@ -1762,13 +1744,13 @@
       <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="40"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="39"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
@@ -1776,13 +1758,13 @@
       <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="40"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
@@ -1790,13 +1772,13 @@
       <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="40"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
@@ -1804,13 +1786,13 @@
       <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="40"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
@@ -1818,13 +1800,13 @@
       <c r="L47" s="29"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="40"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -1832,13 +1814,13 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="40"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
@@ -1846,13 +1828,13 @@
       <c r="L49" s="29"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="40"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
@@ -1860,13 +1842,13 @@
       <c r="L50" s="29"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="40"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
@@ -1874,13 +1856,13 @@
       <c r="L51" s="29"/>
     </row>
     <row r="52" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="44"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="30"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="40"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="39"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
@@ -1888,13 +1870,13 @@
       <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="40"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -1902,13 +1884,13 @@
       <c r="L53" s="29"/>
     </row>
     <row r="54" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="40"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -1916,13 +1898,13 @@
       <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="40"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -1930,13 +1912,13 @@
       <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="40"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="39"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
@@ -1944,13 +1926,13 @@
       <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="40"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="39"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
@@ -1958,13 +1940,13 @@
       <c r="L57" s="29"/>
     </row>
     <row r="58" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="40"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="39"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
@@ -1972,13 +1954,13 @@
       <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="40"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
@@ -1986,13 +1968,13 @@
       <c r="L59" s="29"/>
     </row>
     <row r="60" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="40"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="39"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -2000,13 +1982,13 @@
       <c r="L60" s="29"/>
     </row>
     <row r="61" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="40"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
@@ -2014,13 +1996,13 @@
       <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="40"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
@@ -2028,13 +2010,13 @@
       <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="40"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
       <c r="J63" s="30"/>
@@ -2042,13 +2024,13 @@
       <c r="L63" s="29"/>
     </row>
     <row r="64" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="40"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
@@ -2056,13 +2038,13 @@
       <c r="L64" s="29"/>
     </row>
     <row r="65" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="40"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
       <c r="J65" s="30"/>
@@ -2070,13 +2052,13 @@
       <c r="L65" s="29"/>
     </row>
     <row r="66" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="40"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
@@ -2084,13 +2066,13 @@
       <c r="L66" s="29"/>
     </row>
     <row r="67" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="40"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
@@ -2098,13 +2080,13 @@
       <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="40"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
@@ -2112,13 +2094,13 @@
       <c r="L68" s="29"/>
     </row>
     <row r="69" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="40"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
       <c r="J69" s="30"/>
@@ -2126,13 +2108,13 @@
       <c r="L69" s="29"/>
     </row>
     <row r="70" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="40"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="39"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
       <c r="J70" s="30"/>
@@ -2140,13 +2122,13 @@
       <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="40"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="39"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
       <c r="J71" s="30"/>
@@ -2154,13 +2136,13 @@
       <c r="L71" s="29"/>
     </row>
     <row r="72" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="40"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
       <c r="J72" s="30"/>
@@ -2168,13 +2150,13 @@
       <c r="L72" s="29"/>
     </row>
     <row r="73" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="40"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="30"/>
@@ -2182,13 +2164,13 @@
       <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="40"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
       <c r="J74" s="30"/>
@@ -2196,13 +2178,13 @@
       <c r="L74" s="29"/>
     </row>
     <row r="75" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="40"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
       <c r="E75" s="27"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="40"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="30"/>
@@ -2210,13 +2192,13 @@
       <c r="L75" s="29"/>
     </row>
     <row r="76" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="40"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="39"/>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
       <c r="J76" s="30"/>
@@ -2224,13 +2206,13 @@
       <c r="L76" s="29"/>
     </row>
     <row r="77" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
       <c r="D77" s="30"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="40"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
       <c r="J77" s="30"/>
@@ -2238,13 +2220,13 @@
       <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="30"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="40"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
       <c r="J78" s="30"/>
@@ -2252,13 +2234,13 @@
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
       <c r="E79" s="27"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="40"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
       <c r="J79" s="30"/>
@@ -2266,13 +2248,13 @@
       <c r="L79" s="29"/>
     </row>
     <row r="80" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="40"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
       <c r="E80" s="27"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="40"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
@@ -2280,13 +2262,13 @@
       <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="40"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
       <c r="E81" s="27"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="40"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
       <c r="J81" s="30"/>
@@ -2294,13 +2276,13 @@
       <c r="L81" s="29"/>
     </row>
     <row r="82" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="40"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="40"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
@@ -2308,13 +2290,13 @@
       <c r="L82" s="29"/>
     </row>
     <row r="83" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
       <c r="E83" s="27"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="40"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30"/>
       <c r="J83" s="30"/>
@@ -2322,13 +2304,13 @@
       <c r="L83" s="29"/>
     </row>
     <row r="84" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="40"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="40"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="39"/>
       <c r="H84" s="30"/>
       <c r="I84" s="30"/>
       <c r="J84" s="30"/>
@@ -2336,13 +2318,13 @@
       <c r="L84" s="29"/>
     </row>
     <row r="85" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="40"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
       <c r="E85" s="27"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="40"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="30"/>
       <c r="I85" s="30"/>
       <c r="J85" s="30"/>
@@ -2350,13 +2332,13 @@
       <c r="L85" s="29"/>
     </row>
     <row r="86" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="40"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
       <c r="E86" s="27"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="40"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
       <c r="J86" s="30"/>
@@ -2364,13 +2346,13 @@
       <c r="L86" s="29"/>
     </row>
     <row r="87" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="40"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
       <c r="E87" s="27"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="40"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="39"/>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
       <c r="J87" s="30"/>
@@ -2378,13 +2360,13 @@
       <c r="L87" s="29"/>
     </row>
     <row r="88" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="40"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="40"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="39"/>
       <c r="H88" s="30"/>
       <c r="I88" s="30"/>
       <c r="J88" s="30"/>
@@ -2392,13 +2374,13 @@
       <c r="L88" s="29"/>
     </row>
     <row r="89" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="40"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="40"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="39"/>
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
       <c r="J89" s="30"/>
@@ -2406,13 +2388,13 @@
       <c r="L89" s="29"/>
     </row>
     <row r="90" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="40"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="40"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="39"/>
       <c r="H90" s="30"/>
       <c r="I90" s="30"/>
       <c r="J90" s="30"/>
@@ -2420,13 +2402,13 @@
       <c r="L90" s="29"/>
     </row>
     <row r="91" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="40"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="40"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="39"/>
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
       <c r="J91" s="30"/>
@@ -2434,13 +2416,13 @@
       <c r="L91" s="29"/>
     </row>
     <row r="92" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="40"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="40"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="39"/>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
       <c r="J92" s="30"/>
@@ -2448,13 +2430,13 @@
       <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="40"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="40"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
       <c r="J93" s="30"/>
@@ -2462,13 +2444,13 @@
       <c r="L93" s="29"/>
     </row>
     <row r="94" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="40"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="40"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="39"/>
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
       <c r="J94" s="30"/>
@@ -2476,13 +2458,13 @@
       <c r="L94" s="29"/>
     </row>
     <row r="95" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="40"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="40"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
       <c r="J95" s="30"/>
@@ -2490,13 +2472,13 @@
       <c r="L95" s="29"/>
     </row>
     <row r="96" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="40"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="40"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="39"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
       <c r="J96" s="30"/>
@@ -2504,13 +2486,13 @@
       <c r="L96" s="29"/>
     </row>
     <row r="97" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="40"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="40"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="39"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
       <c r="J97" s="30"/>
@@ -2518,13 +2500,13 @@
       <c r="L97" s="29"/>
     </row>
     <row r="98" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="40"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="40"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="39"/>
       <c r="H98" s="30"/>
       <c r="I98" s="30"/>
       <c r="J98" s="30"/>
@@ -2532,13 +2514,13 @@
       <c r="L98" s="29"/>
     </row>
     <row r="99" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="40"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
       <c r="D99" s="30"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="40"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="39"/>
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
       <c r="J99" s="30"/>
@@ -2546,13 +2528,13 @@
       <c r="L99" s="29"/>
     </row>
     <row r="100" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="40"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
       <c r="D100" s="30"/>
       <c r="E100" s="27"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="40"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="39"/>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
       <c r="J100" s="30"/>
@@ -2560,13 +2542,13 @@
       <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="40"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
       <c r="E101" s="27"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="40"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="39"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
       <c r="J101" s="30"/>
@@ -2574,13 +2556,13 @@
       <c r="L101" s="29"/>
     </row>
     <row r="102" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="40"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
       <c r="D102" s="30"/>
       <c r="E102" s="27"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="40"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="39"/>
       <c r="H102" s="30"/>
       <c r="I102" s="30"/>
       <c r="J102" s="30"/>
@@ -2588,13 +2570,13 @@
       <c r="L102" s="29"/>
     </row>
     <row r="103" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="40"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
       <c r="E103" s="27"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="40"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="39"/>
       <c r="H103" s="30"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
@@ -2602,13 +2584,13 @@
       <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="40"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
       <c r="D104" s="30"/>
       <c r="E104" s="27"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="40"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="39"/>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
@@ -2616,13 +2598,13 @@
       <c r="L104" s="29"/>
     </row>
     <row r="105" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="40"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="27"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="40"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="39"/>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
@@ -2630,13 +2612,13 @@
       <c r="L105" s="29"/>
     </row>
     <row r="106" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="40"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
       <c r="D106" s="30"/>
       <c r="E106" s="27"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="40"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="39"/>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
@@ -2644,13 +2626,13 @@
       <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="27"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="40"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="30"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
@@ -2658,13 +2640,13 @@
       <c r="L107" s="29"/>
     </row>
     <row r="108" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="30"/>
       <c r="E108" s="27"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="40"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="30"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
@@ -2672,13 +2654,13 @@
       <c r="L108" s="29"/>
     </row>
     <row r="109" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30"/>
       <c r="D109" s="30"/>
       <c r="E109" s="27"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="40"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="30"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
@@ -2686,13 +2668,13 @@
       <c r="L109" s="29"/>
     </row>
     <row r="110" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
       <c r="D110" s="30"/>
       <c r="E110" s="27"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="40"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
@@ -2700,13 +2682,13 @@
       <c r="L110" s="29"/>
     </row>
     <row r="111" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
       <c r="D111" s="30"/>
       <c r="E111" s="27"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="40"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="30"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
@@ -2714,13 +2696,13 @@
       <c r="L111" s="29"/>
     </row>
     <row r="112" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
       <c r="E112" s="27"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="40"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="39"/>
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
@@ -2728,13 +2710,13 @@
       <c r="L112" s="29"/>
     </row>
     <row r="113" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="39"/>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
       <c r="E113" s="27"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="40"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="39"/>
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
@@ -2742,13 +2724,13 @@
       <c r="L113" s="29"/>
     </row>
     <row r="114" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
       <c r="D114" s="30"/>
       <c r="E114" s="27"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="40"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="39"/>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
@@ -2756,13 +2738,13 @@
       <c r="L114" s="29"/>
     </row>
     <row r="115" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
       <c r="D115" s="30"/>
       <c r="E115" s="27"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="40"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="39"/>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
@@ -2770,13 +2752,13 @@
       <c r="L115" s="29"/>
     </row>
     <row r="116" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
       <c r="D116" s="30"/>
       <c r="E116" s="27"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="40"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="39"/>
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
@@ -2784,13 +2766,13 @@
       <c r="L116" s="29"/>
     </row>
     <row r="117" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
       <c r="D117" s="30"/>
       <c r="E117" s="27"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="40"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="39"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
@@ -2798,13 +2780,13 @@
       <c r="L117" s="29"/>
     </row>
     <row r="118" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
       <c r="D118" s="30"/>
       <c r="E118" s="27"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="40"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="39"/>
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
@@ -2812,13 +2794,13 @@
       <c r="L118" s="29"/>
     </row>
     <row r="119" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
       <c r="D119" s="30"/>
       <c r="E119" s="27"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="40"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="39"/>
       <c r="H119" s="30"/>
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
@@ -2826,13 +2808,13 @@
       <c r="L119" s="29"/>
     </row>
     <row r="120" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
       <c r="D120" s="30"/>
       <c r="E120" s="27"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="40"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="39"/>
       <c r="H120" s="30"/>
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
@@ -2840,13 +2822,13 @@
       <c r="L120" s="29"/>
     </row>
     <row r="121" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
       <c r="D121" s="30"/>
       <c r="E121" s="27"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="40"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="39"/>
       <c r="H121" s="30"/>
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
@@ -2854,13 +2836,13 @@
       <c r="L121" s="29"/>
     </row>
     <row r="122" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
       <c r="D122" s="30"/>
       <c r="E122" s="27"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="40"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="39"/>
       <c r="H122" s="30"/>
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
@@ -2868,13 +2850,13 @@
       <c r="L122" s="29"/>
     </row>
     <row r="123" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="39"/>
       <c r="B123" s="30"/>
       <c r="C123" s="30"/>
       <c r="D123" s="30"/>
       <c r="E123" s="27"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="40"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="39"/>
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
@@ -2882,13 +2864,13 @@
       <c r="L123" s="29"/>
     </row>
     <row r="124" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
       <c r="D124" s="30"/>
       <c r="E124" s="27"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="40"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="39"/>
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
@@ -2896,13 +2878,13 @@
       <c r="L124" s="29"/>
     </row>
     <row r="125" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
       <c r="D125" s="30"/>
       <c r="E125" s="27"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="40"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="39"/>
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
@@ -2910,13 +2892,13 @@
       <c r="L125" s="29"/>
     </row>
     <row r="126" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
       <c r="D126" s="30"/>
       <c r="E126" s="27"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="40"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="39"/>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
@@ -2924,13 +2906,13 @@
       <c r="L126" s="29"/>
     </row>
     <row r="127" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="39"/>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
       <c r="D127" s="30"/>
       <c r="E127" s="27"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="40"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="39"/>
       <c r="H127" s="30"/>
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
@@ -2938,13 +2920,13 @@
       <c r="L127" s="29"/>
     </row>
     <row r="128" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="39"/>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
       <c r="D128" s="30"/>
       <c r="E128" s="27"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="40"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="39"/>
       <c r="H128" s="30"/>
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
@@ -2952,13 +2934,13 @@
       <c r="L128" s="29"/>
     </row>
     <row r="129" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="39"/>
       <c r="B129" s="30"/>
       <c r="C129" s="30"/>
       <c r="D129" s="30"/>
       <c r="E129" s="27"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="40"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="39"/>
       <c r="H129" s="30"/>
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
@@ -2966,13 +2948,13 @@
       <c r="L129" s="29"/>
     </row>
     <row r="130" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="39"/>
       <c r="B130" s="30"/>
       <c r="C130" s="30"/>
       <c r="D130" s="30"/>
       <c r="E130" s="27"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="40"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="39"/>
       <c r="H130" s="30"/>
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
@@ -2980,13 +2962,13 @@
       <c r="L130" s="29"/>
     </row>
     <row r="131" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="39"/>
       <c r="B131" s="30"/>
       <c r="C131" s="30"/>
       <c r="D131" s="30"/>
       <c r="E131" s="27"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="40"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="39"/>
       <c r="H131" s="30"/>
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
@@ -2994,13 +2976,13 @@
       <c r="L131" s="29"/>
     </row>
     <row r="132" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="39"/>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
       <c r="D132" s="30"/>
       <c r="E132" s="27"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="40"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="39"/>
       <c r="H132" s="30"/>
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
@@ -3008,13 +2990,13 @@
       <c r="L132" s="29"/>
     </row>
     <row r="133" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="39"/>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
       <c r="D133" s="30"/>
       <c r="E133" s="27"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="40"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="39"/>
       <c r="H133" s="30"/>
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
@@ -3022,13 +3004,13 @@
       <c r="L133" s="29"/>
     </row>
     <row r="134" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
       <c r="D134" s="30"/>
       <c r="E134" s="27"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="40"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="39"/>
       <c r="H134" s="30"/>
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
@@ -3036,13 +3018,13 @@
       <c r="L134" s="29"/>
     </row>
     <row r="135" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="39"/>
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
       <c r="E135" s="27"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="40"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="39"/>
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
@@ -3050,13 +3032,13 @@
       <c r="L135" s="29"/>
     </row>
     <row r="136" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="39"/>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
       <c r="D136" s="30"/>
       <c r="E136" s="27"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="40"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="39"/>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
@@ -3064,13 +3046,13 @@
       <c r="L136" s="29"/>
     </row>
     <row r="137" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="39"/>
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
       <c r="D137" s="30"/>
       <c r="E137" s="27"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="40"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="39"/>
       <c r="H137" s="30"/>
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
@@ -3078,13 +3060,13 @@
       <c r="L137" s="29"/>
     </row>
     <row r="138" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="39"/>
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
       <c r="D138" s="30"/>
       <c r="E138" s="27"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="40"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="39"/>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
@@ -3092,13 +3074,13 @@
       <c r="L138" s="29"/>
     </row>
     <row r="139" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="39"/>
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
       <c r="D139" s="30"/>
       <c r="E139" s="27"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="40"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="39"/>
       <c r="H139" s="30"/>
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
@@ -3106,13 +3088,13 @@
       <c r="L139" s="29"/>
     </row>
     <row r="140" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="39"/>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
       <c r="E140" s="27"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="40"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="39"/>
       <c r="H140" s="30"/>
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
@@ -3120,13 +3102,13 @@
       <c r="L140" s="29"/>
     </row>
     <row r="141" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
       <c r="D141" s="30"/>
       <c r="E141" s="27"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="40"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="39"/>
       <c r="H141" s="30"/>
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
@@ -3134,13 +3116,13 @@
       <c r="L141" s="29"/>
     </row>
     <row r="142" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="39"/>
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
       <c r="D142" s="30"/>
       <c r="E142" s="27"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="40"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="39"/>
       <c r="H142" s="30"/>
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
@@ -3148,13 +3130,13 @@
       <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="39"/>
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
       <c r="D143" s="30"/>
       <c r="E143" s="27"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="40"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="39"/>
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
@@ -3162,13 +3144,13 @@
       <c r="L143" s="29"/>
     </row>
     <row r="144" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="39"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
       <c r="E144" s="27"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="40"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="39"/>
       <c r="H144" s="30"/>
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
@@ -3176,13 +3158,13 @@
       <c r="L144" s="29"/>
     </row>
     <row r="145" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="39"/>
       <c r="B145" s="30"/>
       <c r="C145" s="30"/>
       <c r="D145" s="30"/>
       <c r="E145" s="27"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="40"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="39"/>
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
@@ -3190,13 +3172,13 @@
       <c r="L145" s="29"/>
     </row>
     <row r="146" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+      <c r="A146" s="39"/>
       <c r="B146" s="30"/>
       <c r="C146" s="30"/>
       <c r="D146" s="30"/>
       <c r="E146" s="27"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="40"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="39"/>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
@@ -3204,13 +3186,13 @@
       <c r="L146" s="29"/>
     </row>
     <row r="147" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="39"/>
       <c r="B147" s="30"/>
       <c r="C147" s="30"/>
       <c r="D147" s="30"/>
       <c r="E147" s="27"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="40"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="39"/>
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
@@ -3218,13 +3200,13 @@
       <c r="L147" s="29"/>
     </row>
     <row r="148" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
       <c r="D148" s="30"/>
       <c r="E148" s="27"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="40"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="39"/>
       <c r="H148" s="30"/>
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
@@ -3232,13 +3214,13 @@
       <c r="L148" s="29"/>
     </row>
     <row r="149" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
       <c r="D149" s="30"/>
       <c r="E149" s="27"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="40"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="39"/>
       <c r="H149" s="30"/>
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
@@ -3246,13 +3228,13 @@
       <c r="L149" s="29"/>
     </row>
     <row r="150" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="39"/>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
       <c r="D150" s="30"/>
       <c r="E150" s="27"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="40"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="39"/>
       <c r="H150" s="30"/>
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
@@ -3260,13 +3242,13 @@
       <c r="L150" s="29"/>
     </row>
     <row r="151" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+      <c r="A151" s="39"/>
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
       <c r="D151" s="30"/>
       <c r="E151" s="27"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="40"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="39"/>
       <c r="H151" s="30"/>
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
@@ -3274,13 +3256,13 @@
       <c r="L151" s="29"/>
     </row>
     <row r="152" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
+      <c r="A152" s="39"/>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
       <c r="D152" s="30"/>
       <c r="E152" s="27"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="40"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="39"/>
       <c r="H152" s="30"/>
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
@@ -3288,13 +3270,13 @@
       <c r="L152" s="29"/>
     </row>
     <row r="153" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
+      <c r="A153" s="39"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
       <c r="D153" s="30"/>
       <c r="E153" s="27"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="40"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="39"/>
       <c r="H153" s="30"/>
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
@@ -3302,13 +3284,13 @@
       <c r="L153" s="29"/>
     </row>
     <row r="154" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="39"/>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
       <c r="D154" s="30"/>
       <c r="E154" s="27"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="40"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="39"/>
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
@@ -3316,13 +3298,13 @@
       <c r="L154" s="29"/>
     </row>
     <row r="155" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="39"/>
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
       <c r="E155" s="27"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="40"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="39"/>
       <c r="H155" s="30"/>
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
@@ -3330,13 +3312,13 @@
       <c r="L155" s="29"/>
     </row>
     <row r="156" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="39"/>
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
       <c r="D156" s="30"/>
       <c r="E156" s="27"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="40"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="39"/>
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
@@ -3344,13 +3326,13 @@
       <c r="L156" s="29"/>
     </row>
     <row r="157" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="39"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
       <c r="D157" s="30"/>
       <c r="E157" s="27"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="40"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="39"/>
       <c r="H157" s="30"/>
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
@@ -3358,13 +3340,13 @@
       <c r="L157" s="29"/>
     </row>
     <row r="158" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+      <c r="A158" s="39"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
       <c r="D158" s="30"/>
       <c r="E158" s="27"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="40"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="39"/>
       <c r="H158" s="30"/>
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
@@ -3372,13 +3354,13 @@
       <c r="L158" s="29"/>
     </row>
     <row r="159" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="30"/>
       <c r="C159" s="30"/>
       <c r="D159" s="30"/>
       <c r="E159" s="27"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="40"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="39"/>
       <c r="H159" s="30"/>
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
@@ -3386,13 +3368,13 @@
       <c r="L159" s="29"/>
     </row>
     <row r="160" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="30"/>
       <c r="C160" s="30"/>
       <c r="D160" s="30"/>
       <c r="E160" s="27"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="40"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="39"/>
       <c r="H160" s="30"/>
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
@@ -3400,13 +3382,13 @@
       <c r="L160" s="29"/>
     </row>
     <row r="161" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="30"/>
       <c r="C161" s="30"/>
       <c r="D161" s="30"/>
       <c r="E161" s="27"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="40"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="39"/>
       <c r="H161" s="30"/>
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
@@ -3414,13 +3396,13 @@
       <c r="L161" s="29"/>
     </row>
     <row r="162" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+      <c r="A162" s="39"/>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
       <c r="D162" s="30"/>
       <c r="E162" s="27"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="40"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="39"/>
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
@@ -3428,13 +3410,13 @@
       <c r="L162" s="29"/>
     </row>
     <row r="163" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="30"/>
       <c r="C163" s="30"/>
       <c r="D163" s="30"/>
       <c r="E163" s="27"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="40"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="39"/>
       <c r="H163" s="30"/>
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
@@ -3442,13 +3424,13 @@
       <c r="L163" s="29"/>
     </row>
     <row r="164" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="30"/>
       <c r="C164" s="30"/>
       <c r="D164" s="30"/>
       <c r="E164" s="27"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="40"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="39"/>
       <c r="H164" s="30"/>
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
@@ -3456,13 +3438,13 @@
       <c r="L164" s="29"/>
     </row>
     <row r="165" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
       <c r="E165" s="27"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="40"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="39"/>
       <c r="H165" s="30"/>
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
@@ -3470,13 +3452,13 @@
       <c r="L165" s="29"/>
     </row>
     <row r="166" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
       <c r="D166" s="30"/>
       <c r="E166" s="27"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="40"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="39"/>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
@@ -3484,13 +3466,13 @@
       <c r="L166" s="29"/>
     </row>
     <row r="167" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
+      <c r="A167" s="39"/>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
       <c r="D167" s="30"/>
       <c r="E167" s="27"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="40"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="39"/>
       <c r="H167" s="30"/>
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
@@ -3498,13 +3480,13 @@
       <c r="L167" s="29"/>
     </row>
     <row r="168" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
+      <c r="A168" s="39"/>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
       <c r="D168" s="30"/>
       <c r="E168" s="27"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="40"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="39"/>
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
@@ -3512,13 +3494,13 @@
       <c r="L168" s="29"/>
     </row>
     <row r="169" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
       <c r="D169" s="30"/>
       <c r="E169" s="27"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="40"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="39"/>
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
@@ -3526,13 +3508,13 @@
       <c r="L169" s="29"/>
     </row>
     <row r="170" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
+      <c r="A170" s="39"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
       <c r="D170" s="30"/>
       <c r="E170" s="27"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="40"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="39"/>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
@@ -3540,13 +3522,13 @@
       <c r="L170" s="29"/>
     </row>
     <row r="171" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
       <c r="D171" s="30"/>
       <c r="E171" s="27"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="40"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="39"/>
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
@@ -3554,13 +3536,13 @@
       <c r="L171" s="29"/>
     </row>
     <row r="172" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
+      <c r="A172" s="39"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
       <c r="D172" s="30"/>
       <c r="E172" s="27"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="40"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="39"/>
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
@@ -3568,13 +3550,13 @@
       <c r="L172" s="29"/>
     </row>
     <row r="173" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
+      <c r="A173" s="39"/>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
       <c r="D173" s="30"/>
       <c r="E173" s="27"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="40"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="39"/>
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
@@ -3582,13 +3564,13 @@
       <c r="L173" s="29"/>
     </row>
     <row r="174" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
       <c r="D174" s="30"/>
       <c r="E174" s="27"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="40"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="39"/>
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
@@ -3596,13 +3578,13 @@
       <c r="L174" s="29"/>
     </row>
     <row r="175" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
+      <c r="A175" s="39"/>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
       <c r="D175" s="30"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="40"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="39"/>
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
@@ -3610,13 +3592,13 @@
       <c r="L175" s="29"/>
     </row>
     <row r="176" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
       <c r="D176" s="30"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="40"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="39"/>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
@@ -3624,13 +3606,13 @@
       <c r="L176" s="29"/>
     </row>
     <row r="177" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
+      <c r="A177" s="39"/>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
       <c r="D177" s="30"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="40"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="39"/>
       <c r="H177" s="30"/>
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
@@ -3638,13 +3620,13 @@
       <c r="L177" s="29"/>
     </row>
     <row r="178" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
+      <c r="A178" s="39"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
       <c r="D178" s="30"/>
       <c r="E178" s="27"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="40"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="39"/>
       <c r="H178" s="30"/>
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
@@ -3652,13 +3634,13 @@
       <c r="L178" s="29"/>
     </row>
     <row r="179" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
       <c r="D179" s="30"/>
       <c r="E179" s="27"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="40"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="39"/>
       <c r="H179" s="30"/>
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
@@ -3666,13 +3648,13 @@
       <c r="L179" s="29"/>
     </row>
     <row r="180" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
       <c r="D180" s="30"/>
       <c r="E180" s="27"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="40"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="39"/>
       <c r="H180" s="30"/>
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
@@ -3680,13 +3662,13 @@
       <c r="L180" s="29"/>
     </row>
     <row r="181" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
       <c r="D181" s="30"/>
       <c r="E181" s="27"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="40"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="39"/>
       <c r="H181" s="30"/>
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
@@ -3694,13 +3676,13 @@
       <c r="L181" s="29"/>
     </row>
     <row r="182" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
+      <c r="A182" s="39"/>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
       <c r="D182" s="30"/>
       <c r="E182" s="27"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="40"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="39"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
@@ -3708,13 +3690,13 @@
       <c r="L182" s="29"/>
     </row>
     <row r="183" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
+      <c r="A183" s="39"/>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
       <c r="D183" s="30"/>
       <c r="E183" s="27"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="40"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="39"/>
       <c r="H183" s="30"/>
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
@@ -3722,13 +3704,13 @@
       <c r="L183" s="29"/>
     </row>
     <row r="184" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
       <c r="D184" s="30"/>
       <c r="E184" s="27"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="40"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="39"/>
       <c r="H184" s="30"/>
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
@@ -3736,13 +3718,13 @@
       <c r="L184" s="29"/>
     </row>
     <row r="185" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
+      <c r="A185" s="39"/>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
       <c r="D185" s="30"/>
       <c r="E185" s="27"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="40"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="39"/>
       <c r="H185" s="30"/>
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
@@ -3750,13 +3732,13 @@
       <c r="L185" s="29"/>
     </row>
     <row r="186" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
+      <c r="A186" s="39"/>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
       <c r="D186" s="30"/>
       <c r="E186" s="27"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="40"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="39"/>
       <c r="H186" s="30"/>
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
@@ -3764,13 +3746,13 @@
       <c r="L186" s="29"/>
     </row>
     <row r="187" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
+      <c r="A187" s="39"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
       <c r="D187" s="30"/>
       <c r="E187" s="27"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="40"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="39"/>
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
@@ -3778,13 +3760,13 @@
       <c r="L187" s="29"/>
     </row>
     <row r="188" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40"/>
+      <c r="A188" s="39"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
       <c r="D188" s="30"/>
       <c r="E188" s="27"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="40"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="39"/>
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
@@ -3792,13 +3774,13 @@
       <c r="L188" s="29"/>
     </row>
     <row r="189" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
+      <c r="A189" s="39"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
       <c r="D189" s="30"/>
       <c r="E189" s="27"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="40"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="39"/>
       <c r="H189" s="30"/>
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
@@ -3806,13 +3788,13 @@
       <c r="L189" s="29"/>
     </row>
     <row r="190" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
+      <c r="A190" s="39"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
       <c r="D190" s="30"/>
       <c r="E190" s="27"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="40"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="39"/>
       <c r="H190" s="30"/>
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
@@ -3820,13 +3802,13 @@
       <c r="L190" s="29"/>
     </row>
     <row r="191" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
       <c r="D191" s="30"/>
       <c r="E191" s="27"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="40"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="39"/>
       <c r="H191" s="30"/>
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
@@ -3834,13 +3816,13 @@
       <c r="L191" s="29"/>
     </row>
     <row r="192" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
+      <c r="A192" s="39"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
       <c r="D192" s="30"/>
       <c r="E192" s="27"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="40"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="39"/>
       <c r="H192" s="30"/>
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
@@ -3848,13 +3830,13 @@
       <c r="L192" s="29"/>
     </row>
     <row r="193" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
+      <c r="A193" s="39"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
       <c r="D193" s="30"/>
       <c r="E193" s="27"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="40"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="39"/>
       <c r="H193" s="30"/>
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
@@ -3862,13 +3844,13 @@
       <c r="L193" s="29"/>
     </row>
     <row r="194" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
       <c r="D194" s="30"/>
       <c r="E194" s="27"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="40"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="39"/>
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
@@ -3876,13 +3858,13 @@
       <c r="L194" s="29"/>
     </row>
     <row r="195" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
+      <c r="A195" s="39"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
       <c r="D195" s="30"/>
       <c r="E195" s="27"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="40"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="39"/>
       <c r="H195" s="30"/>
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
@@ -3890,13 +3872,13 @@
       <c r="L195" s="29"/>
     </row>
     <row r="196" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
+      <c r="A196" s="39"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
       <c r="D196" s="30"/>
       <c r="E196" s="27"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="40"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="39"/>
       <c r="H196" s="30"/>
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
@@ -3904,13 +3886,13 @@
       <c r="L196" s="29"/>
     </row>
     <row r="197" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
+      <c r="A197" s="39"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
       <c r="D197" s="30"/>
       <c r="E197" s="27"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="40"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="39"/>
       <c r="H197" s="30"/>
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
@@ -3918,13 +3900,13 @@
       <c r="L197" s="29"/>
     </row>
     <row r="198" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
+      <c r="A198" s="39"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
       <c r="D198" s="30"/>
       <c r="E198" s="27"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="40"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="39"/>
       <c r="H198" s="30"/>
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
@@ -3932,13 +3914,13 @@
       <c r="L198" s="29"/>
     </row>
     <row r="199" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="40"/>
+      <c r="A199" s="39"/>
       <c r="B199" s="30"/>
       <c r="C199" s="30"/>
       <c r="D199" s="30"/>
       <c r="E199" s="27"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="40"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="39"/>
       <c r="H199" s="30"/>
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
@@ -3946,13 +3928,13 @@
       <c r="L199" s="29"/>
     </row>
     <row r="200" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="30"/>
       <c r="C200" s="30"/>
       <c r="D200" s="30"/>
       <c r="E200" s="27"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="40"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="39"/>
       <c r="H200" s="30"/>
       <c r="I200" s="30"/>
       <c r="J200" s="30"/>
@@ -3960,13 +3942,13 @@
       <c r="L200" s="29"/>
     </row>
     <row r="201" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="30"/>
       <c r="C201" s="30"/>
       <c r="D201" s="30"/>
       <c r="E201" s="27"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="40"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="39"/>
       <c r="H201" s="30"/>
       <c r="I201" s="30"/>
       <c r="J201" s="30"/>
@@ -3974,13 +3956,13 @@
       <c r="L201" s="29"/>
     </row>
     <row r="202" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
+      <c r="A202" s="39"/>
       <c r="B202" s="30"/>
       <c r="C202" s="30"/>
       <c r="D202" s="30"/>
       <c r="E202" s="27"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="40"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="39"/>
       <c r="H202" s="30"/>
       <c r="I202" s="30"/>
       <c r="J202" s="30"/>
@@ -3988,13 +3970,13 @@
       <c r="L202" s="29"/>
     </row>
     <row r="203" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
+      <c r="A203" s="39"/>
       <c r="B203" s="30"/>
       <c r="C203" s="30"/>
       <c r="D203" s="30"/>
       <c r="E203" s="27"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="40"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="39"/>
       <c r="H203" s="30"/>
       <c r="I203" s="30"/>
       <c r="J203" s="30"/>
@@ -4002,13 +3984,13 @@
       <c r="L203" s="29"/>
     </row>
     <row r="204" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
       <c r="D204" s="30"/>
       <c r="E204" s="27"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="40"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="39"/>
       <c r="H204" s="30"/>
       <c r="I204" s="30"/>
       <c r="J204" s="30"/>
@@ -4016,13 +3998,13 @@
       <c r="L204" s="29"/>
     </row>
     <row r="205" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="30"/>
       <c r="C205" s="30"/>
       <c r="D205" s="30"/>
       <c r="E205" s="27"/>
-      <c r="F205" s="45"/>
-      <c r="G205" s="40"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="39"/>
       <c r="H205" s="30"/>
       <c r="I205" s="30"/>
       <c r="J205" s="30"/>
@@ -4030,13 +4012,13 @@
       <c r="L205" s="29"/>
     </row>
     <row r="206" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="30"/>
       <c r="C206" s="30"/>
       <c r="D206" s="30"/>
       <c r="E206" s="27"/>
-      <c r="F206" s="45"/>
-      <c r="G206" s="40"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="39"/>
       <c r="H206" s="30"/>
       <c r="I206" s="30"/>
       <c r="J206" s="30"/>
@@ -4044,13 +4026,13 @@
       <c r="L206" s="29"/>
     </row>
     <row r="207" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
+      <c r="A207" s="39"/>
       <c r="B207" s="30"/>
       <c r="C207" s="30"/>
       <c r="D207" s="30"/>
       <c r="E207" s="27"/>
-      <c r="F207" s="45"/>
-      <c r="G207" s="40"/>
+      <c r="F207" s="44"/>
+      <c r="G207" s="39"/>
       <c r="H207" s="30"/>
       <c r="I207" s="30"/>
       <c r="J207" s="30"/>
@@ -4058,13 +4040,13 @@
       <c r="L207" s="29"/>
     </row>
     <row r="208" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
+      <c r="A208" s="39"/>
       <c r="B208" s="30"/>
       <c r="C208" s="30"/>
       <c r="D208" s="30"/>
       <c r="E208" s="27"/>
-      <c r="F208" s="45"/>
-      <c r="G208" s="40"/>
+      <c r="F208" s="44"/>
+      <c r="G208" s="39"/>
       <c r="H208" s="30"/>
       <c r="I208" s="30"/>
       <c r="J208" s="30"/>
@@ -4072,13 +4054,13 @@
       <c r="L208" s="29"/>
     </row>
     <row r="209" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
+      <c r="A209" s="39"/>
       <c r="B209" s="30"/>
       <c r="C209" s="30"/>
       <c r="D209" s="30"/>
       <c r="E209" s="27"/>
-      <c r="F209" s="45"/>
-      <c r="G209" s="40"/>
+      <c r="F209" s="44"/>
+      <c r="G209" s="39"/>
       <c r="H209" s="30"/>
       <c r="I209" s="30"/>
       <c r="J209" s="30"/>
@@ -4086,13 +4068,13 @@
       <c r="L209" s="29"/>
     </row>
     <row r="210" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
+      <c r="A210" s="39"/>
       <c r="B210" s="30"/>
       <c r="C210" s="30"/>
       <c r="D210" s="30"/>
       <c r="E210" s="27"/>
-      <c r="F210" s="45"/>
-      <c r="G210" s="40"/>
+      <c r="F210" s="44"/>
+      <c r="G210" s="39"/>
       <c r="H210" s="30"/>
       <c r="I210" s="30"/>
       <c r="J210" s="30"/>
@@ -4100,13 +4082,13 @@
       <c r="L210" s="29"/>
     </row>
     <row r="211" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
+      <c r="A211" s="39"/>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
       <c r="D211" s="30"/>
       <c r="E211" s="27"/>
-      <c r="F211" s="45"/>
-      <c r="G211" s="40"/>
+      <c r="F211" s="44"/>
+      <c r="G211" s="39"/>
       <c r="H211" s="30"/>
       <c r="I211" s="30"/>
       <c r="J211" s="30"/>
@@ -4114,13 +4096,13 @@
       <c r="L211" s="29"/>
     </row>
     <row r="212" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
+      <c r="A212" s="39"/>
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
       <c r="D212" s="30"/>
       <c r="E212" s="27"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="40"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="39"/>
       <c r="H212" s="30"/>
       <c r="I212" s="30"/>
       <c r="J212" s="30"/>
@@ -4128,13 +4110,13 @@
       <c r="L212" s="29"/>
     </row>
     <row r="213" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="40"/>
+      <c r="A213" s="39"/>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
       <c r="D213" s="30"/>
       <c r="E213" s="27"/>
-      <c r="F213" s="45"/>
-      <c r="G213" s="40"/>
+      <c r="F213" s="44"/>
+      <c r="G213" s="39"/>
       <c r="H213" s="30"/>
       <c r="I213" s="30"/>
       <c r="J213" s="30"/>
@@ -4142,13 +4124,13 @@
       <c r="L213" s="29"/>
     </row>
     <row r="214" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
+      <c r="A214" s="39"/>
       <c r="B214" s="30"/>
       <c r="C214" s="30"/>
       <c r="D214" s="30"/>
       <c r="E214" s="27"/>
-      <c r="F214" s="45"/>
-      <c r="G214" s="40"/>
+      <c r="F214" s="44"/>
+      <c r="G214" s="39"/>
       <c r="H214" s="30"/>
       <c r="I214" s="30"/>
       <c r="J214" s="30"/>
@@ -4156,13 +4138,13 @@
       <c r="L214" s="29"/>
     </row>
     <row r="215" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
       <c r="E215" s="27"/>
-      <c r="F215" s="45"/>
-      <c r="G215" s="40"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="39"/>
       <c r="H215" s="30"/>
       <c r="I215" s="30"/>
       <c r="J215" s="30"/>
@@ -4170,13 +4152,13 @@
       <c r="L215" s="29"/>
     </row>
     <row r="216" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
       <c r="D216" s="30"/>
       <c r="E216" s="27"/>
-      <c r="F216" s="45"/>
-      <c r="G216" s="40"/>
+      <c r="F216" s="44"/>
+      <c r="G216" s="39"/>
       <c r="H216" s="30"/>
       <c r="I216" s="30"/>
       <c r="J216" s="30"/>
@@ -4184,13 +4166,13 @@
       <c r="L216" s="29"/>
     </row>
     <row r="217" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40"/>
+      <c r="A217" s="39"/>
       <c r="B217" s="30"/>
       <c r="C217" s="30"/>
       <c r="D217" s="30"/>
       <c r="E217" s="27"/>
-      <c r="F217" s="45"/>
-      <c r="G217" s="40"/>
+      <c r="F217" s="44"/>
+      <c r="G217" s="39"/>
       <c r="H217" s="30"/>
       <c r="I217" s="30"/>
       <c r="J217" s="30"/>
@@ -4198,13 +4180,13 @@
       <c r="L217" s="29"/>
     </row>
     <row r="218" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
+      <c r="A218" s="39"/>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
       <c r="D218" s="30"/>
       <c r="E218" s="27"/>
-      <c r="F218" s="45"/>
-      <c r="G218" s="40"/>
+      <c r="F218" s="44"/>
+      <c r="G218" s="39"/>
       <c r="H218" s="30"/>
       <c r="I218" s="30"/>
       <c r="J218" s="30"/>
@@ -4212,13 +4194,13 @@
       <c r="L218" s="29"/>
     </row>
     <row r="219" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
+      <c r="A219" s="39"/>
       <c r="B219" s="30"/>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
       <c r="E219" s="27"/>
-      <c r="F219" s="45"/>
-      <c r="G219" s="40"/>
+      <c r="F219" s="44"/>
+      <c r="G219" s="39"/>
       <c r="H219" s="30"/>
       <c r="I219" s="30"/>
       <c r="J219" s="30"/>
@@ -4226,13 +4208,13 @@
       <c r="L219" s="29"/>
     </row>
     <row r="220" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
+      <c r="A220" s="39"/>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
       <c r="E220" s="27"/>
-      <c r="F220" s="45"/>
-      <c r="G220" s="40"/>
+      <c r="F220" s="44"/>
+      <c r="G220" s="39"/>
       <c r="H220" s="30"/>
       <c r="I220" s="30"/>
       <c r="J220" s="30"/>
@@ -4240,13 +4222,13 @@
       <c r="L220" s="29"/>
     </row>
     <row r="221" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
+      <c r="A221" s="39"/>
       <c r="B221" s="30"/>
       <c r="C221" s="30"/>
       <c r="D221" s="30"/>
       <c r="E221" s="27"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="40"/>
+      <c r="F221" s="44"/>
+      <c r="G221" s="39"/>
       <c r="H221" s="30"/>
       <c r="I221" s="30"/>
       <c r="J221" s="30"/>
@@ -4254,13 +4236,13 @@
       <c r="L221" s="29"/>
     </row>
     <row r="222" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
+      <c r="A222" s="39"/>
       <c r="B222" s="30"/>
       <c r="C222" s="30"/>
       <c r="D222" s="30"/>
       <c r="E222" s="27"/>
-      <c r="F222" s="45"/>
-      <c r="G222" s="40"/>
+      <c r="F222" s="44"/>
+      <c r="G222" s="39"/>
       <c r="H222" s="30"/>
       <c r="I222" s="30"/>
       <c r="J222" s="30"/>
@@ -4268,13 +4250,13 @@
       <c r="L222" s="29"/>
     </row>
     <row r="223" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
+      <c r="A223" s="39"/>
       <c r="B223" s="30"/>
       <c r="C223" s="30"/>
       <c r="D223" s="30"/>
       <c r="E223" s="27"/>
-      <c r="F223" s="45"/>
-      <c r="G223" s="40"/>
+      <c r="F223" s="44"/>
+      <c r="G223" s="39"/>
       <c r="H223" s="30"/>
       <c r="I223" s="30"/>
       <c r="J223" s="30"/>
@@ -4282,13 +4264,13 @@
       <c r="L223" s="29"/>
     </row>
     <row r="224" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
+      <c r="A224" s="39"/>
       <c r="B224" s="30"/>
       <c r="C224" s="30"/>
       <c r="D224" s="30"/>
       <c r="E224" s="27"/>
-      <c r="F224" s="45"/>
-      <c r="G224" s="40"/>
+      <c r="F224" s="44"/>
+      <c r="G224" s="39"/>
       <c r="H224" s="30"/>
       <c r="I224" s="30"/>
       <c r="J224" s="30"/>
@@ -4296,13 +4278,13 @@
       <c r="L224" s="29"/>
     </row>
     <row r="225" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
+      <c r="A225" s="39"/>
       <c r="B225" s="30"/>
       <c r="C225" s="30"/>
       <c r="D225" s="30"/>
       <c r="E225" s="27"/>
-      <c r="F225" s="45"/>
-      <c r="G225" s="40"/>
+      <c r="F225" s="44"/>
+      <c r="G225" s="39"/>
       <c r="H225" s="30"/>
       <c r="I225" s="30"/>
       <c r="J225" s="30"/>
@@ -4310,13 +4292,13 @@
       <c r="L225" s="29"/>
     </row>
     <row r="226" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
+      <c r="A226" s="39"/>
       <c r="B226" s="30"/>
       <c r="C226" s="30"/>
       <c r="D226" s="30"/>
       <c r="E226" s="27"/>
-      <c r="F226" s="45"/>
-      <c r="G226" s="40"/>
+      <c r="F226" s="44"/>
+      <c r="G226" s="39"/>
       <c r="H226" s="30"/>
       <c r="I226" s="30"/>
       <c r="J226" s="30"/>
@@ -4324,13 +4306,13 @@
       <c r="L226" s="29"/>
     </row>
     <row r="227" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="40"/>
+      <c r="A227" s="39"/>
       <c r="B227" s="30"/>
       <c r="C227" s="30"/>
       <c r="D227" s="30"/>
       <c r="E227" s="27"/>
-      <c r="F227" s="45"/>
-      <c r="G227" s="40"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="39"/>
       <c r="H227" s="30"/>
       <c r="I227" s="30"/>
       <c r="J227" s="30"/>
@@ -4338,13 +4320,13 @@
       <c r="L227" s="29"/>
     </row>
     <row r="228" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="30"/>
       <c r="C228" s="30"/>
       <c r="D228" s="30"/>
       <c r="E228" s="27"/>
-      <c r="F228" s="45"/>
-      <c r="G228" s="40"/>
+      <c r="F228" s="44"/>
+      <c r="G228" s="39"/>
       <c r="H228" s="30"/>
       <c r="I228" s="30"/>
       <c r="J228" s="30"/>
@@ -4352,13 +4334,13 @@
       <c r="L228" s="29"/>
     </row>
     <row r="229" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
+      <c r="A229" s="39"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
       <c r="D229" s="30"/>
       <c r="E229" s="27"/>
-      <c r="F229" s="45"/>
-      <c r="G229" s="40"/>
+      <c r="F229" s="44"/>
+      <c r="G229" s="39"/>
       <c r="H229" s="30"/>
       <c r="I229" s="30"/>
       <c r="J229" s="30"/>
@@ -4366,13 +4348,13 @@
       <c r="L229" s="29"/>
     </row>
     <row r="230" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
+      <c r="A230" s="39"/>
       <c r="B230" s="30"/>
       <c r="C230" s="30"/>
       <c r="D230" s="30"/>
       <c r="E230" s="27"/>
-      <c r="F230" s="45"/>
-      <c r="G230" s="40"/>
+      <c r="F230" s="44"/>
+      <c r="G230" s="39"/>
       <c r="H230" s="30"/>
       <c r="I230" s="30"/>
       <c r="J230" s="30"/>
@@ -4380,13 +4362,13 @@
       <c r="L230" s="29"/>
     </row>
     <row r="231" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
+      <c r="A231" s="39"/>
       <c r="B231" s="30"/>
       <c r="C231" s="30"/>
       <c r="D231" s="30"/>
       <c r="E231" s="27"/>
-      <c r="F231" s="45"/>
-      <c r="G231" s="40"/>
+      <c r="F231" s="44"/>
+      <c r="G231" s="39"/>
       <c r="H231" s="30"/>
       <c r="I231" s="30"/>
       <c r="J231" s="30"/>
@@ -4394,13 +4376,13 @@
       <c r="L231" s="29"/>
     </row>
     <row r="232" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
+      <c r="A232" s="39"/>
       <c r="B232" s="30"/>
       <c r="C232" s="30"/>
       <c r="D232" s="30"/>
       <c r="E232" s="27"/>
-      <c r="F232" s="45"/>
-      <c r="G232" s="40"/>
+      <c r="F232" s="44"/>
+      <c r="G232" s="39"/>
       <c r="H232" s="30"/>
       <c r="I232" s="30"/>
       <c r="J232" s="30"/>
@@ -4408,13 +4390,13 @@
       <c r="L232" s="29"/>
     </row>
     <row r="233" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
+      <c r="A233" s="39"/>
       <c r="B233" s="30"/>
       <c r="C233" s="30"/>
       <c r="D233" s="30"/>
       <c r="E233" s="27"/>
-      <c r="F233" s="45"/>
-      <c r="G233" s="40"/>
+      <c r="F233" s="44"/>
+      <c r="G233" s="39"/>
       <c r="H233" s="30"/>
       <c r="I233" s="30"/>
       <c r="J233" s="30"/>
@@ -4422,13 +4404,13 @@
       <c r="L233" s="29"/>
     </row>
     <row r="234" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
+      <c r="A234" s="39"/>
       <c r="B234" s="30"/>
       <c r="C234" s="30"/>
       <c r="D234" s="30"/>
       <c r="E234" s="27"/>
-      <c r="F234" s="45"/>
-      <c r="G234" s="40"/>
+      <c r="F234" s="44"/>
+      <c r="G234" s="39"/>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
       <c r="J234" s="30"/>
@@ -4436,13 +4418,13 @@
       <c r="L234" s="29"/>
     </row>
     <row r="235" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
+      <c r="A235" s="39"/>
       <c r="B235" s="30"/>
       <c r="C235" s="30"/>
       <c r="D235" s="30"/>
       <c r="E235" s="27"/>
-      <c r="F235" s="45"/>
-      <c r="G235" s="40"/>
+      <c r="F235" s="44"/>
+      <c r="G235" s="39"/>
       <c r="H235" s="30"/>
       <c r="I235" s="30"/>
       <c r="J235" s="30"/>
@@ -4450,13 +4432,13 @@
       <c r="L235" s="29"/>
     </row>
     <row r="236" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
+      <c r="A236" s="39"/>
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
       <c r="D236" s="30"/>
       <c r="E236" s="27"/>
-      <c r="F236" s="45"/>
-      <c r="G236" s="40"/>
+      <c r="F236" s="44"/>
+      <c r="G236" s="39"/>
       <c r="H236" s="30"/>
       <c r="I236" s="30"/>
       <c r="J236" s="30"/>
@@ -4464,13 +4446,13 @@
       <c r="L236" s="29"/>
     </row>
     <row r="237" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
+      <c r="A237" s="39"/>
       <c r="B237" s="30"/>
       <c r="C237" s="30"/>
       <c r="D237" s="30"/>
       <c r="E237" s="27"/>
-      <c r="F237" s="45"/>
-      <c r="G237" s="40"/>
+      <c r="F237" s="44"/>
+      <c r="G237" s="39"/>
       <c r="H237" s="30"/>
       <c r="I237" s="30"/>
       <c r="J237" s="30"/>
@@ -4478,13 +4460,13 @@
       <c r="L237" s="29"/>
     </row>
     <row r="238" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
+      <c r="A238" s="39"/>
       <c r="B238" s="30"/>
       <c r="C238" s="30"/>
       <c r="D238" s="30"/>
       <c r="E238" s="27"/>
-      <c r="F238" s="45"/>
-      <c r="G238" s="40"/>
+      <c r="F238" s="44"/>
+      <c r="G238" s="39"/>
       <c r="H238" s="30"/>
       <c r="I238" s="30"/>
       <c r="J238" s="30"/>
@@ -4492,13 +4474,13 @@
       <c r="L238" s="29"/>
     </row>
     <row r="239" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
+      <c r="A239" s="39"/>
       <c r="B239" s="30"/>
       <c r="C239" s="30"/>
       <c r="D239" s="30"/>
       <c r="E239" s="27"/>
-      <c r="F239" s="45"/>
-      <c r="G239" s="40"/>
+      <c r="F239" s="44"/>
+      <c r="G239" s="39"/>
       <c r="H239" s="30"/>
       <c r="I239" s="30"/>
       <c r="J239" s="30"/>
@@ -4506,13 +4488,13 @@
       <c r="L239" s="29"/>
     </row>
     <row r="240" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
+      <c r="A240" s="39"/>
       <c r="B240" s="30"/>
       <c r="C240" s="30"/>
       <c r="D240" s="30"/>
       <c r="E240" s="27"/>
-      <c r="F240" s="45"/>
-      <c r="G240" s="40"/>
+      <c r="F240" s="44"/>
+      <c r="G240" s="39"/>
       <c r="H240" s="30"/>
       <c r="I240" s="30"/>
       <c r="J240" s="30"/>
@@ -4520,13 +4502,13 @@
       <c r="L240" s="29"/>
     </row>
     <row r="241" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="40"/>
+      <c r="A241" s="39"/>
       <c r="B241" s="30"/>
       <c r="C241" s="30"/>
       <c r="D241" s="30"/>
       <c r="E241" s="27"/>
-      <c r="F241" s="45"/>
-      <c r="G241" s="40"/>
+      <c r="F241" s="44"/>
+      <c r="G241" s="39"/>
       <c r="H241" s="30"/>
       <c r="I241" s="30"/>
       <c r="J241" s="30"/>
@@ -4534,13 +4516,13 @@
       <c r="L241" s="29"/>
     </row>
     <row r="242" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
+      <c r="A242" s="39"/>
       <c r="B242" s="30"/>
       <c r="C242" s="30"/>
       <c r="D242" s="30"/>
       <c r="E242" s="27"/>
-      <c r="F242" s="45"/>
-      <c r="G242" s="40"/>
+      <c r="F242" s="44"/>
+      <c r="G242" s="39"/>
       <c r="H242" s="30"/>
       <c r="I242" s="30"/>
       <c r="J242" s="30"/>
@@ -4548,13 +4530,13 @@
       <c r="L242" s="29"/>
     </row>
     <row r="243" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
+      <c r="A243" s="39"/>
       <c r="B243" s="30"/>
       <c r="C243" s="30"/>
       <c r="D243" s="30"/>
       <c r="E243" s="27"/>
-      <c r="F243" s="45"/>
-      <c r="G243" s="40"/>
+      <c r="F243" s="44"/>
+      <c r="G243" s="39"/>
       <c r="H243" s="30"/>
       <c r="I243" s="30"/>
       <c r="J243" s="30"/>
@@ -4562,13 +4544,13 @@
       <c r="L243" s="29"/>
     </row>
     <row r="244" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
+      <c r="A244" s="39"/>
       <c r="B244" s="30"/>
       <c r="C244" s="30"/>
       <c r="D244" s="30"/>
       <c r="E244" s="27"/>
-      <c r="F244" s="45"/>
-      <c r="G244" s="40"/>
+      <c r="F244" s="44"/>
+      <c r="G244" s="39"/>
       <c r="H244" s="30"/>
       <c r="I244" s="30"/>
       <c r="J244" s="30"/>
@@ -4576,13 +4558,13 @@
       <c r="L244" s="29"/>
     </row>
     <row r="245" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
+      <c r="A245" s="39"/>
       <c r="B245" s="30"/>
       <c r="C245" s="30"/>
       <c r="D245" s="30"/>
       <c r="E245" s="27"/>
-      <c r="F245" s="45"/>
-      <c r="G245" s="40"/>
+      <c r="F245" s="44"/>
+      <c r="G245" s="39"/>
       <c r="H245" s="30"/>
       <c r="I245" s="30"/>
       <c r="J245" s="30"/>
@@ -4590,13 +4572,13 @@
       <c r="L245" s="29"/>
     </row>
     <row r="246" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
+      <c r="A246" s="39"/>
       <c r="B246" s="30"/>
       <c r="C246" s="30"/>
       <c r="D246" s="30"/>
       <c r="E246" s="27"/>
-      <c r="F246" s="45"/>
-      <c r="G246" s="40"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="39"/>
       <c r="H246" s="30"/>
       <c r="I246" s="30"/>
       <c r="J246" s="30"/>
@@ -4604,13 +4586,13 @@
       <c r="L246" s="29"/>
     </row>
     <row r="247" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
+      <c r="A247" s="39"/>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
       <c r="D247" s="30"/>
       <c r="E247" s="27"/>
-      <c r="F247" s="45"/>
-      <c r="G247" s="40"/>
+      <c r="F247" s="44"/>
+      <c r="G247" s="39"/>
       <c r="H247" s="30"/>
       <c r="I247" s="30"/>
       <c r="J247" s="30"/>
@@ -4618,13 +4600,13 @@
       <c r="L247" s="29"/>
     </row>
     <row r="248" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
+      <c r="A248" s="39"/>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
       <c r="D248" s="30"/>
       <c r="E248" s="27"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="40"/>
+      <c r="F248" s="44"/>
+      <c r="G248" s="39"/>
       <c r="H248" s="30"/>
       <c r="I248" s="30"/>
       <c r="J248" s="30"/>
@@ -4632,13 +4614,13 @@
       <c r="L248" s="29"/>
     </row>
     <row r="249" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
+      <c r="A249" s="39"/>
       <c r="B249" s="30"/>
       <c r="C249" s="30"/>
       <c r="D249" s="30"/>
       <c r="E249" s="27"/>
-      <c r="F249" s="45"/>
-      <c r="G249" s="40"/>
+      <c r="F249" s="44"/>
+      <c r="G249" s="39"/>
       <c r="H249" s="30"/>
       <c r="I249" s="30"/>
       <c r="J249" s="30"/>
@@ -4646,13 +4628,13 @@
       <c r="L249" s="29"/>
     </row>
     <row r="250" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
+      <c r="A250" s="39"/>
       <c r="B250" s="30"/>
       <c r="C250" s="30"/>
       <c r="D250" s="30"/>
       <c r="E250" s="27"/>
-      <c r="F250" s="45"/>
-      <c r="G250" s="40"/>
+      <c r="F250" s="44"/>
+      <c r="G250" s="39"/>
       <c r="H250" s="30"/>
       <c r="I250" s="30"/>
       <c r="J250" s="30"/>
@@ -4660,13 +4642,13 @@
       <c r="L250" s="29"/>
     </row>
     <row r="251" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
+      <c r="A251" s="39"/>
       <c r="B251" s="30"/>
       <c r="C251" s="30"/>
       <c r="D251" s="30"/>
       <c r="E251" s="27"/>
-      <c r="F251" s="45"/>
-      <c r="G251" s="40"/>
+      <c r="F251" s="44"/>
+      <c r="G251" s="39"/>
       <c r="H251" s="30"/>
       <c r="I251" s="30"/>
       <c r="J251" s="30"/>
@@ -4674,13 +4656,13 @@
       <c r="L251" s="29"/>
     </row>
     <row r="252" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
+      <c r="A252" s="39"/>
       <c r="B252" s="30"/>
       <c r="C252" s="30"/>
       <c r="D252" s="30"/>
       <c r="E252" s="27"/>
-      <c r="F252" s="45"/>
-      <c r="G252" s="40"/>
+      <c r="F252" s="44"/>
+      <c r="G252" s="39"/>
       <c r="H252" s="30"/>
       <c r="I252" s="30"/>
       <c r="J252" s="30"/>
@@ -4688,13 +4670,13 @@
       <c r="L252" s="29"/>
     </row>
     <row r="253" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
+      <c r="A253" s="39"/>
       <c r="B253" s="30"/>
       <c r="C253" s="30"/>
       <c r="D253" s="30"/>
       <c r="E253" s="27"/>
-      <c r="F253" s="45"/>
-      <c r="G253" s="40"/>
+      <c r="F253" s="44"/>
+      <c r="G253" s="39"/>
       <c r="H253" s="30"/>
       <c r="I253" s="30"/>
       <c r="J253" s="30"/>
@@ -4702,13 +4684,13 @@
       <c r="L253" s="29"/>
     </row>
     <row r="254" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
+      <c r="A254" s="39"/>
       <c r="B254" s="30"/>
       <c r="C254" s="30"/>
       <c r="D254" s="30"/>
       <c r="E254" s="27"/>
-      <c r="F254" s="45"/>
-      <c r="G254" s="40"/>
+      <c r="F254" s="44"/>
+      <c r="G254" s="39"/>
       <c r="H254" s="30"/>
       <c r="I254" s="30"/>
       <c r="J254" s="30"/>
@@ -4716,13 +4698,13 @@
       <c r="L254" s="29"/>
     </row>
     <row r="255" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="40"/>
+      <c r="A255" s="39"/>
       <c r="B255" s="30"/>
       <c r="C255" s="30"/>
       <c r="D255" s="30"/>
       <c r="E255" s="27"/>
-      <c r="F255" s="45"/>
-      <c r="G255" s="40"/>
+      <c r="F255" s="44"/>
+      <c r="G255" s="39"/>
       <c r="H255" s="30"/>
       <c r="I255" s="30"/>
       <c r="J255" s="30"/>
@@ -4730,18 +4712,18 @@
       <c r="L255" s="29"/>
     </row>
     <row r="256" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="46"/>
-      <c r="B256" s="47"/>
-      <c r="C256" s="47"/>
-      <c r="D256" s="47"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="49"/>
-      <c r="G256" s="46"/>
-      <c r="H256" s="47"/>
-      <c r="I256" s="47"/>
-      <c r="J256" s="47"/>
-      <c r="K256" s="48"/>
-      <c r="L256" s="50"/>
+      <c r="A256" s="45"/>
+      <c r="B256" s="46"/>
+      <c r="C256" s="46"/>
+      <c r="D256" s="46"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="45"/>
+      <c r="H256" s="46"/>
+      <c r="I256" s="46"/>
+      <c r="J256" s="46"/>
+      <c r="K256" s="47"/>
+      <c r="L256" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4777,15 +4759,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5425F-3B60-4519-956D-D79F46E47E6C}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
     <col min="3" max="5" width="19.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -4809,8 +4791,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4819,7 +4801,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4834,7 +4816,7 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4849,7 +4831,7 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4862,6 +4844,7 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4870,7 +4853,7 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4952,255 +4935,232 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
+      <c r="A67"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>83</v>
-      </c>
+      <c r="A68"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74"/>
+      <c r="A69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5216,8 +5176,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010055E5F3423508794F8AC5D0171C8F361A" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27292688f40811def10ebaa7117e0f58">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fce9474-19d4-4240-9ba5-e002108504aa" xmlns:ns3="affa50e8-14a3-442c-b4b4-e61b9fb54af6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed7de5c48cb516c78ec1c51adf93a74b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010055E5F3423508794F8AC5D0171C8F361A" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c67aa17d0265f32c758bae87673c8dd4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fce9474-19d4-4240-9ba5-e002108504aa" xmlns:ns3="affa50e8-14a3-442c-b4b4-e61b9fb54af6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d55167cd2c3dd098a5491e08974fcf0a" ns2:_="" ns3:_="">
     <xsd:import namespace="1fce9474-19d4-4240-9ba5-e002108504aa"/>
     <xsd:import namespace="affa50e8-14a3-442c-b4b4-e61b9fb54af6"/>
     <xsd:element name="properties">
@@ -5238,6 +5198,7 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5293,6 +5254,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -5439,6 +5405,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fce9474-19d4-4240-9ba5-e002108504aa">
@@ -5449,17 +5424,8 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F33C617-76B5-4A55-99EE-7971B13384D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{561498A7-AF77-4C6B-BA04-A122C04756A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5478,6 +5444,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5060FB9-D3DD-4E37-886D-9D91004BBCCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECB42C0-817D-4237-8D22-A8ED7F7A4BB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5494,12 +5468,4 @@
     <ds:schemaRef ds:uri="affa50e8-14a3-442c-b4b4-e61b9fb54af6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5060FB9-D3DD-4E37-886D-9D91004BBCCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>